--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation Code\OnlineStore\src\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\Automation Code\SalesforceBAU\src\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="10_ncr:8100000_{5D536A6F-F824-45E9-B8FC-7EADCC4DB295}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34"/>
   <bookViews>
-    <workbookView windowHeight="5355" windowWidth="12375" xWindow="0" xr2:uid="{70458EDF-BCAA-4D25-B573-B3DD32EB35BD}" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -42,10 +41,10 @@
     <t>Email</t>
   </si>
   <si>
-    <t>dragon9968@gmail.com</t>
-  </si>
-  <si>
-    <t>long</t>
+    <t>longnguyen@gmail.com</t>
+  </si>
+  <si>
+    <t>Long1234@</t>
   </si>
   <si>
     <t>Pass</t>
@@ -54,8 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -91,20 +89,20 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -121,10 +119,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -159,7 +157,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -211,7 +209,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -322,21 +320,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -353,7 +351,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -405,24 +403,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07520B44-22E7-4276-9CA4-01DF4BC64320}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -455,9 +453,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2" xr:uid="{681208B9-97B0-4012-834D-B27F26FD1633}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -47,7 +47,10 @@
     <t>Long1234@</t>
   </si>
   <si>
-    <t>Pass</t>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>Mozilla</t>
   </si>
 </sst>
 </file>
@@ -411,19 +414,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29.42578125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="22" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,10 +438,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -447,8 +454,8 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -1,77 +1,121 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\Automation Code\SalesforceBAU\src\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView windowHeight="9735" windowWidth="24000" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Test Case Name</t>
   </si>
   <si>
+    <t>Email</t>
+  </si>
+  <si>
     <t>Password</t>
   </si>
   <si>
-    <t>Results</t>
-  </si>
-  <si>
-    <t>Apache_POI</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>longnguyen@gmail.com</t>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>TC1</t>
+  </si>
+  <si>
+    <t>dinhlong20011@yahoo.com</t>
   </si>
   <si>
     <t>Long1234@</t>
   </si>
   <si>
-    <t>Browser</t>
-  </si>
-  <si>
-    <t>Mozilla</t>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>thanhthao1989@yahoo.com</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>longnguyen1@gmail.com</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>longnguyen2@gmail.com</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>longnguyen3@gmail.com</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
+    <t>longnguyen4@gmail.com</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
+    <t>longnguyen5@gmail.com</t>
+  </si>
+  <si>
+    <t>TC8</t>
+  </si>
+  <si>
+    <t>longnguyen6@gmail.com</t>
+  </si>
+  <si>
+    <t>TC9</t>
+  </si>
+  <si>
+    <t>longnguyen7@gmail.com</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>longnguyen8@gmail.com</t>
+  </si>
+  <si>
+    <t>Passed1107</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -91,21 +135,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -122,10 +163,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -134,7 +175,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -146,7 +187,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -160,12 +201,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -193,31 +234,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -245,23 +269,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -323,21 +330,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -354,7 +361,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -406,64 +413,171 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="25.28515625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row customHeight="1" ht="15.75" r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
+    </row>
+    <row customHeight="1" ht="15.75" r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -432,7 +432,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="25.28515625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="25.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="15.75" r="1" spans="1:5" x14ac:dyDescent="0.2">
